--- a/semana 10/inventario_de_productos.xlsx
+++ b/semana 10/inventario_de_productos.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -607,6 +607,348 @@
         <v>0.15</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2225</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>manzana</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>26</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>pai</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2254</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>arroz oso</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2548</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>aceite</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>60</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2264</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>papel</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>20</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2548</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>papaya</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>5846</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>supan</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>5489</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>paletas de paila</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>5684</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>chupetes</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2225</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>manzana</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>26</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2256</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>pai</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>10</v>
+      </c>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2254</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>arroz oso</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>25</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2548</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>aceite</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>60</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2264</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>papel</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>20</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2548</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>papaya</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>5846</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>supan</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>5489</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>paletas de paila</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>12</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>5684</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>chupetes</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>10</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>58964</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>juguetes</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>14</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
